--- a/99_研修資料/第一回/必要事項洗い出し用.xlsx
+++ b/99_研修資料/第一回/必要事項洗い出し用.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,263 @@
     <t>平根</t>
     <rPh sb="0" eb="2">
       <t>ヒラネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー対象について</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理速度</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくかくさせない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵動き</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵配置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラをキーボードで動かす</t>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン制の考え方</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム欄</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの使用</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動範囲の制限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの配置</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム制</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備欄</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ式を考える</t>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の受け渡し</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西尾</t>
+    <rPh sb="0" eb="2">
+      <t>ニシオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -471,255 +728,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D47"/>
+  <dimension ref="B3:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
